--- a/Beta.xlsx
+++ b/Beta.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpredu-my.sharepoint.com/personal/jhonattan_lino_pucpr_edu_br/Documents/Projetos/Python/Beta_covid19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_496DBDFF037CC00F6235547658C32EBEAC979185" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91C6B4F1-426D-4578-9CF1-8A6A1DF1B7D8}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="11_496DBDFF037CC00F6235547658C32EBEAC979185" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DAA76E0-73D0-49E2-B703-85034CD24C2C}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-3270" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -269,6 +280,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,12 +318,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,50 +629,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L22"/>
+  <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:12" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>-1.11883877387869</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>-2.4978631577804431</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>5.4201727451600762E-2</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="3">
         <v>0.85132200050691154</v>
       </c>
     </row>
@@ -663,25 +681,25 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>0.50313400372378236</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>-3.6424691540071339</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>-1.227106883041861</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="3">
         <v>-1.931852302106047</v>
       </c>
     </row>
@@ -689,25 +707,25 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>-1.431033853257538</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>6.4362259427019444</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>-2.4966397255121748</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="3">
         <v>-0.32716353939622428</v>
       </c>
     </row>
@@ -715,25 +733,25 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>0.41400192420698972</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>-1.3139310338704371</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>-0.31657086955457292</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <v>2.953138608204811</v>
       </c>
     </row>
@@ -741,25 +759,25 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>-1.32375501756269</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>1.3622602104182491</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>1.740113508584394</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3">
         <v>-0.1193329455359889</v>
       </c>
     </row>
@@ -767,25 +785,25 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>2.3920937521787451</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>-0.1973691822338639</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>2.4906953658637332</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="3">
         <v>-1.735256078419096</v>
       </c>
     </row>
@@ -793,25 +811,25 @@
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>-3.4319697400044822</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>1.577231487740391</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>-0.36560202027092142</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="3">
         <v>-0.48176017932457083</v>
       </c>
     </row>
@@ -819,25 +837,25 @@
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>-1.54541325601393</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>2.2417150385291031</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <v>-5.659786739035793E-2</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="3">
         <v>-0.8897668823738879</v>
       </c>
     </row>
@@ -845,25 +863,25 @@
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>-0.58012657990128425</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>-0.44999409974424293</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
         <v>-1.7846490870987539</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="3">
         <v>-3.628697243610858E-2</v>
       </c>
     </row>
@@ -871,25 +889,25 @@
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>-1.8383066973720601</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>5.7995518725298849</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>-0.35546144549003472</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="3">
         <v>2.6597400334181871</v>
       </c>
     </row>
@@ -897,25 +915,25 @@
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>2.0491030748412009</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>6.4067772345304981</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="3">
         <v>0.86735000135817275</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="3">
         <v>1.41074379161236</v>
       </c>
     </row>
@@ -923,25 +941,25 @@
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>-2.350901859198604E-2</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>-0.35642025142925049</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="3">
         <v>1.2818367973310549</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="3">
         <v>1.6697280246250521</v>
       </c>
     </row>
@@ -949,25 +967,25 @@
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>1.442724231589787</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>1.0264431218886381</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="3">
         <v>1.4895154557392689</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="3">
         <v>-4.9874758602755946</v>
       </c>
     </row>
@@ -975,25 +993,25 @@
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>-1.518592483409879</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>-1.1382141874551711E-2</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="3">
         <v>0.26001018591327302</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="3">
         <v>-6.7869122954327059</v>
       </c>
     </row>
@@ -1001,25 +1019,25 @@
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>0.61612462094695009</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>-0.48950536806528278</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="3">
         <v>2.364110559593763</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="3">
         <v>-0.74695117533281352</v>
       </c>
     </row>
@@ -1027,25 +1045,25 @@
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>-4.4374104326869421</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>5.2625920029696456</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="3">
         <v>0.65242923187007373</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="3">
         <v>0.88376695542925088</v>
       </c>
     </row>
@@ -1053,25 +1071,25 @@
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>1.7709461216869871</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>0.26272984994024717</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="3">
         <v>-2.8881752555211899</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="3">
         <v>0.4109984163124013</v>
       </c>
     </row>
@@ -1079,25 +1097,25 @@
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>-1.7512494930256139</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>1.04684480362834</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="3">
         <v>-1.837118477349335</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="3">
         <v>-1.7594794488255741</v>
       </c>
     </row>
@@ -1105,62 +1123,63 @@
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>0.39568169779974699</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>-2.3169599964134262</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="3">
         <v>-4.0002171283892816</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="3">
         <v>1.0164548427197171</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>-0.53930062196872575</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>-0.37080145151317401</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="3">
         <v>0.65343751166273067</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="3">
         <v>0.23829226736501699</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="3">
         <v>-0.36778028622953007</v>
       </c>
     </row>
+    <row r="23" spans="2:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="C2:C21 F2:F21 I2:I21 L2:L22">
     <cfRule type="colorScale" priority="1">
